--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_20_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_20_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,166 +518,166 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_5</t>
+          <t>model_20_7_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9590290843684998</v>
+        <v>0.9771481677568692</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7989605122732044</v>
+        <v>0.78759146960413</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6535311812744694</v>
+        <v>-3.257257426123132</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9772818707009617</v>
+        <v>0.9154233855636236</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9285649839928797</v>
+        <v>0.7148176265236108</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2739727014815618</v>
+        <v>0.1528103074328278</v>
       </c>
       <c r="H2" t="n">
-        <v>1.344351980130805</v>
+        <v>1.420376820808533</v>
       </c>
       <c r="I2" t="n">
-        <v>0.728130610615056</v>
+        <v>0.8941429715555727</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2536327909533571</v>
+        <v>0.06081614763615402</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4908817777383909</v>
+        <v>0.4774795595958634</v>
       </c>
       <c r="L2" t="n">
-        <v>0.530865731461353</v>
+        <v>0.1643798332279566</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5234240169132114</v>
+        <v>0.3909095898450534</v>
       </c>
       <c r="N2" t="n">
-        <v>1.018552867455774</v>
+        <v>1.010347999506323</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5457072609502933</v>
+        <v>0.4075514203791636</v>
       </c>
       <c r="P2" t="n">
-        <v>156.5894536143735</v>
+        <v>157.7571158950074</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.442892129225</v>
+        <v>251.6105544098588</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_4</t>
+          <t>model_20_7_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9560211343669418</v>
+        <v>0.9771454803106917</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7989485433515175</v>
+        <v>0.7875628889782316</v>
       </c>
       <c r="D3" t="n">
-        <v>0.666932897634353</v>
+        <v>-3.25730646766037</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9793453131115213</v>
+        <v>0.9152536633553991</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9322905444856299</v>
+        <v>0.7147781095949446</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2940868769923158</v>
+        <v>0.1528282783977913</v>
       </c>
       <c r="H3" t="n">
-        <v>1.344432016365237</v>
+        <v>1.420567939585518</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6999658829714345</v>
+        <v>0.894153271648202</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2305958300014749</v>
+        <v>0.0609381890649969</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4652807509594394</v>
+        <v>0.4775457226110109</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5225889786050451</v>
+        <v>0.1633198355526392</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5422977752050213</v>
+        <v>0.3909325752579226</v>
       </c>
       <c r="N3" t="n">
-        <v>1.019914958022517</v>
+        <v>1.010349216463083</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5653845142066513</v>
+        <v>0.4075753843286451</v>
       </c>
       <c r="P3" t="n">
-        <v>156.4477601106422</v>
+        <v>157.7568807026487</v>
       </c>
       <c r="Q3" t="n">
-        <v>250.3011986254936</v>
+        <v>251.6103192175001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_6</t>
+          <t>model_20_7_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9611872926231455</v>
+        <v>0.9771430644911564</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7985259140352121</v>
+        <v>0.7875371369995919</v>
       </c>
       <c r="D4" t="n">
-        <v>0.642046028547129</v>
+        <v>-3.257340377053031</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9748169016380902</v>
+        <v>0.915100613817695</v>
       </c>
       <c r="F4" t="n">
-        <v>0.92480635651315</v>
+        <v>0.7147431146049166</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2595407529451104</v>
+        <v>0.152844432994148</v>
       </c>
       <c r="H4" t="n">
-        <v>1.3472581405494</v>
+        <v>1.420740143185258</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7522675338138805</v>
+        <v>0.8941603935678047</v>
       </c>
       <c r="J4" t="n">
-        <v>0.281152529695941</v>
+        <v>0.06104824174732155</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5167100317549107</v>
+        <v>0.4776043145647243</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5419423035834517</v>
+        <v>0.1623605240360685</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5094514235382117</v>
+        <v>0.3909532363264794</v>
       </c>
       <c r="N4" t="n">
-        <v>1.017575565604613</v>
+        <v>1.010350310419099</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5311398253480641</v>
+        <v>0.4075969249816647</v>
       </c>
       <c r="P4" t="n">
-        <v>156.6976830892037</v>
+        <v>157.7566693053499</v>
       </c>
       <c r="Q4" t="n">
-        <v>250.5511216040551</v>
+        <v>251.6101078202013</v>
       </c>
     </row>
     <row r="5">
@@ -687,547 +687,547 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9519783287820208</v>
+        <v>0.9771408252012725</v>
       </c>
       <c r="C5" t="n">
-        <v>0.798363151745797</v>
+        <v>0.7875139205090973</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6827725529074122</v>
+        <v>-3.257377785758063</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9810300792439219</v>
+        <v>0.9149631341493014</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9360812465352667</v>
+        <v>0.7147112444893564</v>
       </c>
       <c r="G5" t="n">
-        <v>0.321121136554091</v>
+        <v>0.1528594071359119</v>
       </c>
       <c r="H5" t="n">
-        <v>1.34834653272817</v>
+        <v>1.420895391964097</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6666776410213234</v>
+        <v>0.8941682504407471</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2117865376235791</v>
+        <v>0.0611470986697192</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4392320893224513</v>
+        <v>0.4776576745552332</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5183650030076615</v>
+        <v>0.1615001739349304</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5666755125767223</v>
+        <v>0.390972386666772</v>
       </c>
       <c r="N5" t="n">
-        <v>1.02174566243833</v>
+        <v>1.01035132443716</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5908000623271388</v>
+        <v>0.4076168905915902</v>
       </c>
       <c r="P5" t="n">
-        <v>156.2718737091931</v>
+        <v>157.7564733753051</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.1253122240445</v>
+        <v>251.6099118901565</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_7</t>
+          <t>model_20_7_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9626542365829709</v>
+        <v>0.9771388004224597</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7977492090178953</v>
+        <v>0.7874929993051424</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6320542529339268</v>
+        <v>-3.257408698000342</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9719847500998158</v>
+        <v>0.9148396819548629</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9209778166190736</v>
+        <v>0.714682795902633</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2497312919311023</v>
+        <v>0.1528729468411568</v>
       </c>
       <c r="H6" t="n">
-        <v>1.352451970576596</v>
+        <v>1.421035292151277</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7732660112674403</v>
+        <v>0.8941747428750544</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3127716163557656</v>
+        <v>0.06123586891588019</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5430187046494368</v>
+        <v>0.4777053058954673</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5546671542474051</v>
+        <v>0.1607197987602475</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4997312196882463</v>
+        <v>0.3909897017072916</v>
       </c>
       <c r="N6" t="n">
-        <v>1.016911289094504</v>
+        <v>1.010352241318131</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5210058122966099</v>
+        <v>0.4076349427692318</v>
       </c>
       <c r="P6" t="n">
-        <v>156.7747395428839</v>
+        <v>157.7562962307526</v>
       </c>
       <c r="Q6" t="n">
-        <v>250.6281780577353</v>
+        <v>251.609734745604</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_2</t>
+          <t>model_20_7_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9466760772519447</v>
+        <v>0.9771369611814523</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7970399369231487</v>
+        <v>0.7874741456037772</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7016616586912405</v>
+        <v>-3.257433539627406</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9824299726418562</v>
+        <v>0.9147280606212073</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9401068438147582</v>
+        <v>0.7146572759514586</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3565773169503329</v>
+        <v>0.1528852458542417</v>
       </c>
       <c r="H7" t="n">
-        <v>1.357194876340064</v>
+        <v>1.42116136693912</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6269807465678955</v>
+        <v>0.8941799603106045</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1961576596961047</v>
+        <v>0.06131613199512718</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4115692922871905</v>
+        <v>0.4777480338344318</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5542312957227885</v>
+        <v>0.1600251631096002</v>
       </c>
       <c r="M7" t="n">
-        <v>0.597140952330631</v>
+        <v>0.3910054294434308</v>
       </c>
       <c r="N7" t="n">
-        <v>1.024146681999119</v>
+        <v>1.010353074181984</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6225624789235257</v>
+        <v>0.4076513400676593</v>
       </c>
       <c r="P7" t="n">
-        <v>156.0624083696027</v>
+        <v>157.7561353321944</v>
       </c>
       <c r="Q7" t="n">
-        <v>249.9158468844541</v>
+        <v>251.6095738470459</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_8</t>
+          <t>model_20_7_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9635669761971368</v>
+        <v>0.9771352519754745</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7967187700370018</v>
+        <v>0.7874571323471505</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6232312818587862</v>
+        <v>-3.257461484278618</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9688562471123159</v>
+        <v>0.914627188743441</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9170872346929463</v>
+        <v>0.7146338568010092</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2436277979283949</v>
+        <v>0.1528966753224861</v>
       </c>
       <c r="H8" t="n">
-        <v>1.359342520786566</v>
+        <v>1.421275134664521</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7918081569647429</v>
+        <v>0.8941858294678984</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3476992696753149</v>
+        <v>0.06138866550869293</v>
       </c>
       <c r="K8" t="n">
-        <v>0.569753713320029</v>
+        <v>0.4777872444122327</v>
       </c>
       <c r="L8" t="n">
-        <v>0.568124803037888</v>
+        <v>0.1593959022594715</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4935866670893724</v>
+        <v>0.3910200446556239</v>
       </c>
       <c r="N8" t="n">
-        <v>1.016497973042806</v>
+        <v>1.010353848162049</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5145996733726245</v>
+        <v>0.4076665774796931</v>
       </c>
       <c r="P8" t="n">
-        <v>156.8242272733005</v>
+        <v>157.7559858208275</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.6776657881519</v>
+        <v>251.609424335679</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_9</t>
+          <t>model_20_7_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9640436154561131</v>
+        <v>0.9771337312538372</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7955091085291837</v>
+        <v>0.7874418104423048</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6153424363496407</v>
+        <v>-3.25748219568457</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9655187048103558</v>
+        <v>0.9145369915827399</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9131696962821326</v>
+        <v>0.7146131891020149</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2404405090088995</v>
+        <v>0.1529068443950771</v>
       </c>
       <c r="H9" t="n">
-        <v>1.367431532859325</v>
+        <v>1.421377592312775</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8083871666394127</v>
+        <v>0.8941901794416514</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3849607077905943</v>
+        <v>0.06145352319870704</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5966739595374717</v>
+        <v>0.4778218482472924</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5816512133906101</v>
+        <v>0.1588295182857647</v>
       </c>
       <c r="M9" t="n">
-        <v>0.490347335068622</v>
+        <v>0.391033047701952</v>
       </c>
       <c r="N9" t="n">
-        <v>1.016282136397232</v>
+        <v>1.010354536790715</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5112224362814092</v>
+        <v>0.4076801340926234</v>
       </c>
       <c r="P9" t="n">
-        <v>156.8505651676483</v>
+        <v>157.7558528063664</v>
       </c>
       <c r="Q9" t="n">
-        <v>250.7040036824997</v>
+        <v>251.6092913212179</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_1</t>
+          <t>model_20_7_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.939828526077535</v>
+        <v>0.9771323548127634</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7947477581262888</v>
+        <v>0.7874280368704164</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7243478312731706</v>
+        <v>-3.257501035408555</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9837170381160522</v>
+        <v>0.9144561238081849</v>
       </c>
       <c r="F10" t="n">
-        <v>0.944621458814237</v>
+        <v>0.7145946311584344</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4023669231836849</v>
+        <v>0.1529160486628754</v>
       </c>
       <c r="H10" t="n">
-        <v>1.372522686509178</v>
+        <v>1.421469696251414</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5793040270427107</v>
+        <v>0.894194136309912</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1817884304315342</v>
+        <v>0.06151167244657093</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3805461000123029</v>
+        <v>0.4778529197283935</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6272379436631654</v>
+        <v>0.1583203499415724</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6343239891283357</v>
+        <v>0.3910448166935286</v>
       </c>
       <c r="N10" t="n">
-        <v>1.027247459889418</v>
+        <v>1.010355160084786</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6613284745772059</v>
+        <v>0.4076924041145367</v>
       </c>
       <c r="P10" t="n">
-        <v>155.8207817248456</v>
+        <v>157.7557324194626</v>
       </c>
       <c r="Q10" t="n">
-        <v>249.6742202396971</v>
+        <v>251.6091709343141</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_10</t>
+          <t>model_20_7_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.964184240342842</v>
+        <v>0.9771310690748495</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7941824496017496</v>
+        <v>0.7874156135726792</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6082239824845433</v>
+        <v>-3.257521928852495</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9620607488009346</v>
+        <v>0.9143823564578453</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9092721519136289</v>
+        <v>0.7145774847168032</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2395001497438251</v>
+        <v>0.1529246463982262</v>
       </c>
       <c r="H11" t="n">
-        <v>1.376302907215779</v>
+        <v>1.421552770900587</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8233471395988681</v>
+        <v>0.894198524516727</v>
       </c>
       <c r="J11" t="n">
-        <v>0.42356648479445</v>
+        <v>0.06156471602249176</v>
       </c>
       <c r="K11" t="n">
-        <v>0.623456812196659</v>
+        <v>0.4778816279381572</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5947937605664066</v>
+        <v>0.1578625817214515</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4893875251207626</v>
+        <v>0.3910558098254342</v>
       </c>
       <c r="N11" t="n">
-        <v>1.016218457203241</v>
+        <v>1.010355742305729</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5102217652369888</v>
+        <v>0.4077038652468264</v>
       </c>
       <c r="P11" t="n">
-        <v>156.8584024737924</v>
+        <v>157.7556199722247</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7118409886438</v>
+        <v>251.6090584870761</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_11</t>
+          <t>model_20_7_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9640719231661724</v>
+        <v>0.9771299362665735</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7927893242522972</v>
+        <v>0.7874044179343134</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6017619061019817</v>
+        <v>-3.257536514994756</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9585624119782469</v>
+        <v>0.9143166040149445</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9054421712020406</v>
+        <v>0.7145624577111653</v>
       </c>
       <c r="G12" t="n">
-        <v>0.240251215221387</v>
+        <v>0.1529322214923833</v>
       </c>
       <c r="H12" t="n">
-        <v>1.385618742842319</v>
+        <v>1.421627636185891</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8369276852871751</v>
+        <v>0.8942015880140164</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4626230866983201</v>
+        <v>0.0616119963528944</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6497753859927475</v>
+        <v>0.4779067875858118</v>
       </c>
       <c r="L12" t="n">
-        <v>0.607277290365452</v>
+        <v>0.157449468212299</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4901542769591907</v>
+        <v>0.3910654951442064</v>
       </c>
       <c r="N12" t="n">
-        <v>1.016269317811545</v>
+        <v>1.010356255275514</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5110211592885739</v>
+        <v>0.4077139628896701</v>
       </c>
       <c r="P12" t="n">
-        <v>156.852140345982</v>
+        <v>157.7555209050471</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.7055788608334</v>
+        <v>251.6089594198986</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_12</t>
+          <t>model_20_7_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.963774312483374</v>
+        <v>0.9771289605198848</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7913702014053743</v>
+        <v>0.7873943448905445</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5958706443085808</v>
+        <v>-3.257538723968561</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9550913728235253</v>
+        <v>0.9142571501758989</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9017216514081354</v>
+        <v>0.7145495568051345</v>
       </c>
       <c r="G13" t="n">
-        <v>0.242241339227632</v>
+        <v>0.1529387463149832</v>
       </c>
       <c r="H13" t="n">
-        <v>1.395108423854152</v>
+        <v>1.421694994675956</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8493086206414766</v>
+        <v>0.8942020519602155</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5013749283104586</v>
+        <v>0.06165474757292165</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6753417744759675</v>
+        <v>0.4779283875144991</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6189457901578453</v>
+        <v>0.1570800009056524</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4921801897960055</v>
+        <v>0.3910738374207398</v>
       </c>
       <c r="N13" t="n">
-        <v>1.016404084913189</v>
+        <v>1.010356697123071</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5131333194290697</v>
+        <v>0.4077226603141864</v>
       </c>
       <c r="P13" t="n">
-        <v>156.8356415604654</v>
+        <v>157.7554355772679</v>
       </c>
       <c r="Q13" t="n">
-        <v>250.6890800753168</v>
+        <v>251.6088740921194</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_0</t>
+          <t>model_20_7_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9310626278735907</v>
+        <v>0.977127964793563</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7911338311725995</v>
+        <v>0.7873852487117354</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7519460151383877</v>
+        <v>-3.257562217711516</v>
       </c>
       <c r="E14" t="n">
-        <v>0.98516124598737</v>
+        <v>0.914203398730258</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9500148143665427</v>
+        <v>0.7145365335153369</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4609845248367098</v>
+        <v>0.1529454047414828</v>
       </c>
       <c r="H14" t="n">
-        <v>1.396689032689102</v>
+        <v>1.421755820865536</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5213043416927678</v>
+        <v>0.8942069863024544</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1656648109073399</v>
+        <v>0.06169339839709501</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3434844444059377</v>
+        <v>0.4779501923497747</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6929326451620126</v>
+        <v>0.1567457348388092</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6789584117136408</v>
+        <v>0.39108235033236</v>
       </c>
       <c r="N14" t="n">
-        <v>1.031216923227053</v>
+        <v>1.010357148018009</v>
       </c>
       <c r="O14" t="n">
-        <v>0.7078630769379598</v>
+        <v>0.4077315356380785</v>
       </c>
       <c r="P14" t="n">
-        <v>155.5487816104657</v>
+        <v>157.7553485060486</v>
       </c>
       <c r="Q14" t="n">
-        <v>249.4022201253171</v>
+        <v>251.6087870209001</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9633459268199344</v>
+        <v>0.9771271412211355</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7899563595975391</v>
+        <v>0.787377080193625</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5904920803834335</v>
+        <v>-3.257569814908646</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9517012986161393</v>
+        <v>0.9141555333374166</v>
       </c>
       <c r="F15" t="n">
-        <v>0.89814526170805</v>
+        <v>0.7145257812882486</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2451059561315867</v>
+        <v>0.1529509119740975</v>
       </c>
       <c r="H15" t="n">
-        <v>1.404562790533289</v>
+        <v>1.421810443783753</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8606120823770973</v>
+        <v>0.8942085819260537</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5392228501811527</v>
+        <v>0.06172781676223178</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6999177406056345</v>
+        <v>0.4779681947550151</v>
       </c>
       <c r="L15" t="n">
-        <v>0.629732895650141</v>
+        <v>0.1564435640450175</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4950817671168942</v>
+        <v>0.3910893912829873</v>
       </c>
       <c r="N15" t="n">
-        <v>1.016598070873992</v>
+        <v>1.010357520956467</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5161584229036017</v>
+        <v>0.4077388763365506</v>
       </c>
       <c r="P15" t="n">
-        <v>156.8121293758417</v>
+        <v>157.7552764916789</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.6655678906932</v>
+        <v>251.6087150065303</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9628294855628033</v>
+        <v>0.9771263403015709</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7885715772580142</v>
+        <v>0.7873697069935499</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5855740397905447</v>
+        <v>-3.257588511021155</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9484325309804877</v>
+        <v>0.9141126456253681</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8947378878609689</v>
+        <v>0.7145153963323769</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2485594011960154</v>
+        <v>0.152956267726914</v>
       </c>
       <c r="H16" t="n">
-        <v>1.413822836414029</v>
+        <v>1.421859748406606</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8709477192551927</v>
+        <v>0.8942125086318931</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5757164649280053</v>
+        <v>0.06175865584754045</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7233322762908752</v>
+        <v>0.4779855822397168</v>
       </c>
       <c r="L16" t="n">
-        <v>0.639624188172031</v>
+        <v>0.1561771073553886</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4985573198700581</v>
+        <v>0.391096238446388</v>
       </c>
       <c r="N16" t="n">
-        <v>1.0168319310659</v>
+        <v>1.010357883637025</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5197819371328538</v>
+        <v>0.4077460149978729</v>
       </c>
       <c r="P16" t="n">
-        <v>156.7841468459851</v>
+        <v>157.7552064605953</v>
       </c>
       <c r="Q16" t="n">
-        <v>250.6375853608365</v>
+        <v>251.6086449754467</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9622586191165345</v>
+        <v>0.9771256315415545</v>
       </c>
       <c r="C17" t="n">
-        <v>0.787233257409489</v>
+        <v>0.7873630781922291</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5810800788722366</v>
+        <v>-3.257599430735534</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9453139072368386</v>
+        <v>0.9140731814857048</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8915173594888219</v>
+        <v>0.714506232466207</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2523767877508128</v>
+        <v>0.1529610072084071</v>
       </c>
       <c r="H17" t="n">
-        <v>1.422772187403513</v>
+        <v>1.42190407523156</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8803921203980269</v>
+        <v>0.8942148020769179</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6105338230662315</v>
+        <v>0.06178703315916596</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7454628612748391</v>
+        <v>0.4780009252594472</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6486449908529756</v>
+        <v>0.1559326715145327</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5023711653258105</v>
+        <v>0.3911022976260904</v>
       </c>
       <c r="N17" t="n">
-        <v>1.017090436626475</v>
+        <v>1.010358204584956</v>
       </c>
       <c r="O17" t="n">
-        <v>0.523758145885406</v>
+        <v>0.4077523321293996</v>
       </c>
       <c r="P17" t="n">
-        <v>156.7536642373324</v>
+        <v>157.7551444898355</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.6071027521838</v>
+        <v>251.6085830046869</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9616588572476091</v>
+        <v>0.9771250473130061</v>
       </c>
       <c r="C18" t="n">
-        <v>0.785953508161546</v>
+        <v>0.7873571362392275</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5769747397003395</v>
+        <v>-3.257602063154528</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9423639541447886</v>
+        <v>0.9140388166672642</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8884932158351988</v>
+        <v>0.7144986925297683</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2563873981299671</v>
+        <v>0.1529649139474002</v>
       </c>
       <c r="H18" t="n">
-        <v>1.431329876517212</v>
+        <v>1.421943809098642</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8890198033422269</v>
+        <v>0.8942153549584344</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6434680856575538</v>
+        <v>0.0618117437234952</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7662439444998903</v>
+        <v>0.4780135493409648</v>
       </c>
       <c r="L18" t="n">
-        <v>0.6568309269714395</v>
+        <v>0.1557111559135022</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5063471122954758</v>
+        <v>0.3911072921173935</v>
       </c>
       <c r="N18" t="n">
-        <v>1.017362026906743</v>
+        <v>1.01035846914128</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5279033571489148</v>
+        <v>0.4077575392465374</v>
       </c>
       <c r="P18" t="n">
-        <v>156.7221314088052</v>
+        <v>157.7550934089858</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.5755699236566</v>
+        <v>251.6085319238373</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.961049571229816</v>
+        <v>0.9771244888848241</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7847404211059383</v>
+        <v>0.7873517529561314</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5732273185756744</v>
+        <v>-3.257606387614711</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9395937082855228</v>
+        <v>0.9140066691790726</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8856698290693961</v>
+        <v>0.7144915134844059</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2604616965364535</v>
+        <v>0.1529686481592248</v>
       </c>
       <c r="H19" t="n">
-        <v>1.439441795243812</v>
+        <v>1.421979807137494</v>
       </c>
       <c r="I19" t="n">
-        <v>0.896895294250099</v>
+        <v>0.8942162632158619</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6743960366197094</v>
+        <v>0.06183485988156111</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7856454816214349</v>
+        <v>0.4780255691841836</v>
       </c>
       <c r="L19" t="n">
-        <v>0.6642390878073648</v>
+        <v>0.1555149519776989</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5103544812544056</v>
+        <v>0.3911120659852171</v>
       </c>
       <c r="N19" t="n">
-        <v>1.01763793000914</v>
+        <v>1.010358722014419</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5320813281008236</v>
+        <v>0.4077625163477976</v>
       </c>
       <c r="P19" t="n">
-        <v>156.6905989336954</v>
+        <v>157.7550445851589</v>
       </c>
       <c r="Q19" t="n">
-        <v>250.5440374485468</v>
+        <v>251.6084831000103</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9604450552784142</v>
+        <v>0.9771239903058259</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7835986521073602</v>
+        <v>0.7873468946369981</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5698105987704309</v>
+        <v>-3.257611238612762</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9370074585780654</v>
+        <v>0.913978332752916</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8830464143943157</v>
+        <v>0.7144851289100553</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2645040974870179</v>
+        <v>0.1529719821592816</v>
       </c>
       <c r="H20" t="n">
-        <v>1.447076809794666</v>
+        <v>1.422012294739908</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9040757911480415</v>
+        <v>0.8942172820609489</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7032697930267768</v>
+        <v>0.06185523563540402</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8036728655492281</v>
+        <v>0.4780362588481765</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6709310648934153</v>
+        <v>0.155337940691882</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5142996184006147</v>
+        <v>0.391116328167569</v>
       </c>
       <c r="N20" t="n">
-        <v>1.017911673081473</v>
+        <v>1.010358947786041</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5361944179029066</v>
+        <v>0.4077669599800761</v>
       </c>
       <c r="P20" t="n">
-        <v>156.6597970727189</v>
+        <v>157.7550009950015</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.5132355875704</v>
+        <v>251.6084395098529</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9598557057538838</v>
+        <v>0.9771235169470054</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7825305020398183</v>
+        <v>0.7873425330943282</v>
       </c>
       <c r="D21" t="n">
-        <v>0.566697381704061</v>
+        <v>-3.25762042122856</v>
       </c>
       <c r="E21" t="n">
-        <v>0.934605348626166</v>
+        <v>0.913952874502264</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8806190618045673</v>
+        <v>0.7144790906985115</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2684450804712571</v>
+        <v>0.1529751475118939</v>
       </c>
       <c r="H21" t="n">
-        <v>1.454219534214698</v>
+        <v>1.422041460395825</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9106184539245983</v>
+        <v>0.8942192106667517</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7300877516384877</v>
+        <v>0.06187354179178684</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8203529647646444</v>
+        <v>0.4780463685984867</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6769629504641936</v>
+        <v>0.1551766373100946</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5181168598600678</v>
+        <v>0.3911203747082143</v>
       </c>
       <c r="N21" t="n">
-        <v>1.018178548337864</v>
+        <v>1.010359162137205</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5401741672340677</v>
+        <v>0.4077711787903341</v>
       </c>
       <c r="P21" t="n">
-        <v>156.6302178559226</v>
+        <v>157.7549596106928</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.483656370774</v>
+        <v>251.6083981255443</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,272 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9592887592430348</v>
+        <v>0.977123108089946</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7815361933137508</v>
+        <v>0.7873386449697957</v>
       </c>
       <c r="D22" t="n">
-        <v>0.563865055523495</v>
+        <v>-3.257625521888627</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9323835064966747</v>
+        <v>0.9139300981328559</v>
       </c>
       <c r="F22" t="n">
-        <v>0.878381049218847</v>
+        <v>0.7144738707394194</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2722362543998532</v>
+        <v>0.1529778815409331</v>
       </c>
       <c r="H22" t="n">
-        <v>1.460868481244282</v>
+        <v>1.422067460302477</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9165708031111792</v>
+        <v>0.8942202819478354</v>
       </c>
       <c r="J22" t="n">
-        <v>0.7548931400110451</v>
+        <v>0.06188991949919188</v>
       </c>
       <c r="K22" t="n">
-        <v>0.835731971561112</v>
+        <v>0.4780551083524133</v>
       </c>
       <c r="L22" t="n">
-        <v>0.6823962994729227</v>
+        <v>0.1550315774987266</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5217626418208313</v>
+        <v>0.3911238698173932</v>
       </c>
       <c r="N22" t="n">
-        <v>1.018435278833343</v>
+        <v>1.010359347280025</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5439751576807101</v>
+        <v>0.4077748226935466</v>
       </c>
       <c r="P22" t="n">
-        <v>156.6021700146662</v>
+        <v>157.7549238662644</v>
       </c>
       <c r="Q22" t="n">
-        <v>250.4556085295176</v>
+        <v>251.6083623811158</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_20_7_21</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9771224100212654</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7873319235127851</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-3.257630414629299</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.913890207315471</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7144649978354078</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1529825495294135</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.422112406716457</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.8942213095600385</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.06191860362015805</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4780699642155163</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.1547853387221973</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.391129837176114</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.010359663386597</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.4077810440950824</v>
+      </c>
+      <c r="P23" t="n">
+        <v>157.7548628389156</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>251.6083013537671</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_20_7_22</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9771220692058101</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7873290167111096</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-3.257643408299508</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9138739224972076</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.7144606859065317</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1529848285639329</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.422131844512645</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8942240385937168</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.06193031347539801</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.4780771836585543</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.1546798035042216</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.3911327505642207</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.010359817718124</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.4077840815121523</v>
+      </c>
+      <c r="P24" t="n">
+        <v>157.7548330444384</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>251.6082715592898</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_20_7_23</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9771218188713759</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.78732646723357</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-3.25764162706011</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9138586324645572</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.7144575124749101</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.152986502551447</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.422148892880691</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.8942236644836903</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.06194130801436391</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.4780824969207824</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.1545870550482454</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.391134890480825</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.010359931077113</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.4077863125294366</v>
+      </c>
+      <c r="P25" t="n">
+        <v>157.7548111601984</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>251.6082496750498</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_20_7_24</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9771215274800873</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7873241719718035</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-3.257652488510007</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9138446928759454</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.7144538469930275</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1529884510863354</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.422164241306693</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.8942259456915465</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.06195133149525937</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.4780886340205396</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.1545037629860054</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.3911373813461652</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.010360063027885</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.4077889094360712</v>
+      </c>
+      <c r="P26" t="n">
+        <v>157.7547856870691</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>251.6082242019205</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_20_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_20_7.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_0</t>
+          <t>model_20_7_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9771481677568692</v>
+        <v>0.9952599637867784</v>
       </c>
       <c r="C2" t="n">
-        <v>0.78759146960413</v>
+        <v>0.8253092212931499</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.257257426123132</v>
+        <v>0.9897275078235191</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9154233855636236</v>
+        <v>0.8754026100893459</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7148176265236108</v>
+        <v>0.9721461851160038</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1528103074328278</v>
+        <v>0.03169664398367284</v>
       </c>
       <c r="H2" t="n">
-        <v>1.420376820808533</v>
+        <v>1.16815804158978</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8941429715555727</v>
+        <v>0.01374717602157297</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06081614763615402</v>
+        <v>0.1836020419742004</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4774795595958634</v>
+        <v>0.09867460899788666</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1643798332279566</v>
+        <v>0.08166896740847329</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3909095898450534</v>
+        <v>0.1780355132653956</v>
       </c>
       <c r="N2" t="n">
-        <v>1.010347999506323</v>
+        <v>1.002146431492779</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4075514203791636</v>
+        <v>0.1856148536494226</v>
       </c>
       <c r="P2" t="n">
-        <v>157.7571158950074</v>
+        <v>160.9030889434525</v>
       </c>
       <c r="Q2" t="n">
-        <v>251.6105544098588</v>
+        <v>254.7565274583039</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_1</t>
+          <t>model_20_7_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9771454803106917</v>
+        <v>0.9952557302639133</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7875628889782316</v>
+        <v>0.8252755193641936</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.25730646766037</v>
+        <v>0.9899299969521507</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9152536633553991</v>
+        <v>0.8752189312095354</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7147781095949446</v>
+        <v>0.9721462301437611</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1528282783977913</v>
+        <v>0.03172495357056489</v>
       </c>
       <c r="H3" t="n">
-        <v>1.420567939585518</v>
+        <v>1.168383406543894</v>
       </c>
       <c r="I3" t="n">
-        <v>0.894153271648202</v>
+        <v>0.01347619468170633</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0609381890649969</v>
+        <v>0.1838727042844214</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4775457226110109</v>
+        <v>0.09867444948306388</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1633198355526392</v>
+        <v>0.08407039617086001</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3909325752579226</v>
+        <v>0.1781150009700612</v>
       </c>
       <c r="N3" t="n">
-        <v>1.010349216463083</v>
+        <v>1.002148348559737</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4075753843286451</v>
+        <v>0.185697725310238</v>
       </c>
       <c r="P3" t="n">
-        <v>157.7568807026487</v>
+        <v>160.9013034577591</v>
       </c>
       <c r="Q3" t="n">
-        <v>251.6103192175001</v>
+        <v>254.7547419726105</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_2</t>
+          <t>model_20_7_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9771430644911564</v>
+        <v>0.9952501835850019</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7875371369995919</v>
+        <v>0.8252371653264249</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.257340377053031</v>
+        <v>0.9901524088154858</v>
       </c>
       <c r="E4" t="n">
-        <v>0.915100613817695</v>
+        <v>0.8750081674272766</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7147431146049166</v>
+        <v>0.9721444051165539</v>
       </c>
       <c r="G4" t="n">
-        <v>0.152844432994148</v>
+        <v>0.03176204423798544</v>
       </c>
       <c r="H4" t="n">
-        <v>1.420740143185258</v>
+        <v>1.168639880171057</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8941603935678047</v>
+        <v>0.01317855171619941</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06104824174732155</v>
+        <v>0.184183277891338</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4776043145647243</v>
+        <v>0.0986809148037687</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1623605240360685</v>
+        <v>0.0867369921632775</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3909532363264794</v>
+        <v>0.1782190905542541</v>
       </c>
       <c r="N4" t="n">
-        <v>1.010350310419099</v>
+        <v>1.002150860263395</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4075969249816647</v>
+        <v>0.1858062462035253</v>
       </c>
       <c r="P4" t="n">
-        <v>157.7566693053499</v>
+        <v>160.8989665589974</v>
       </c>
       <c r="Q4" t="n">
-        <v>251.6101078202013</v>
+        <v>254.7524050738488</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_3</t>
+          <t>model_20_7_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9771408252012725</v>
+        <v>0.9952429009228405</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7875139205090973</v>
+        <v>0.8251934138296905</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.257377785758063</v>
+        <v>0.9903957573997997</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9149631341493014</v>
+        <v>0.8747641276910255</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7147112444893564</v>
+        <v>0.972139613952718</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1528594071359119</v>
+        <v>0.03181074343339259</v>
       </c>
       <c r="H5" t="n">
-        <v>1.420895391964097</v>
+        <v>1.168932446631177</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8941682504407471</v>
+        <v>0.01285289015660025</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0611470986697192</v>
+        <v>0.1845428856963704</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4776576745552332</v>
+        <v>0.09869788792648532</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1615001739349304</v>
+        <v>0.08969840560941207</v>
       </c>
       <c r="M5" t="n">
-        <v>0.390972386666772</v>
+        <v>0.1783556655489043</v>
       </c>
       <c r="N5" t="n">
-        <v>1.01035132443716</v>
+        <v>1.002154158072676</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4076168905915902</v>
+        <v>0.1859486354784468</v>
       </c>
       <c r="P5" t="n">
-        <v>157.7564733753051</v>
+        <v>160.89590240487</v>
       </c>
       <c r="Q5" t="n">
-        <v>251.6099118901565</v>
+        <v>254.7493409197214</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_4</t>
+          <t>model_20_7_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9771388004224597</v>
+        <v>0.9952334492239133</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7874929993051424</v>
+        <v>0.8251433960413396</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.257408698000342</v>
+        <v>0.9906617985700766</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9148396819548629</v>
+        <v>0.87448109910393</v>
       </c>
       <c r="F6" t="n">
-        <v>0.714682795902633</v>
+        <v>0.9721310001427116</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1528729468411568</v>
+        <v>0.03187394698764005</v>
       </c>
       <c r="H6" t="n">
-        <v>1.421035292151277</v>
+        <v>1.16926691581219</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8941747428750544</v>
+        <v>0.01249686021430872</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06123586891588019</v>
+        <v>0.1849599460101143</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4777053058954673</v>
+        <v>0.09872840311221154</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1607197987602475</v>
+        <v>0.09299203405042414</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3909897017072916</v>
+        <v>0.1785327616647434</v>
       </c>
       <c r="N6" t="n">
-        <v>1.010352241318131</v>
+        <v>1.002158438087285</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4076349427692318</v>
+        <v>0.1861332709425767</v>
       </c>
       <c r="P6" t="n">
-        <v>157.7562962307526</v>
+        <v>160.8919326234622</v>
       </c>
       <c r="Q6" t="n">
-        <v>251.609734745604</v>
+        <v>254.7453711383137</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_5</t>
+          <t>model_20_7_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9771369611814523</v>
+        <v>0.9952212854785983</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7874741456037772</v>
+        <v>0.8250860609243751</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.257433539627406</v>
+        <v>0.9909520818426296</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9147280606212073</v>
+        <v>0.8741524730244983</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7146572759514586</v>
+        <v>0.9721174819064008</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1528852458542417</v>
+        <v>0.03195528600857001</v>
       </c>
       <c r="H7" t="n">
-        <v>1.42116136693912</v>
+        <v>1.169650316003336</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8941799603106045</v>
+        <v>0.01210838824710293</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06131613199512718</v>
+        <v>0.1854441970788799</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4777480338344318</v>
+        <v>0.09877629266299141</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1600251631096002</v>
+        <v>0.09665359536948526</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3910054294434308</v>
+        <v>0.1787604151051625</v>
       </c>
       <c r="N7" t="n">
-        <v>1.010353074181984</v>
+        <v>1.00216394619837</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4076513400676593</v>
+        <v>0.1863706160612621</v>
       </c>
       <c r="P7" t="n">
-        <v>157.7561353321944</v>
+        <v>160.8868353311314</v>
       </c>
       <c r="Q7" t="n">
-        <v>251.6095738470459</v>
+        <v>254.7402738459828</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_6</t>
+          <t>model_20_7_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9771352519754745</v>
+        <v>0.9952056959842295</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7874571323471505</v>
+        <v>0.8250202329305845</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.257461484278618</v>
+        <v>0.9912677233582359</v>
       </c>
       <c r="E8" t="n">
-        <v>0.914627188743441</v>
+        <v>0.873769498287529</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7146338568010092</v>
+        <v>0.9720974500092497</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1528966753224861</v>
+        <v>0.03205953302919765</v>
       </c>
       <c r="H8" t="n">
-        <v>1.421275134664521</v>
+        <v>1.170090508100925</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8941858294678984</v>
+        <v>0.01168598057813518</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06138866550869293</v>
+        <v>0.1860085342915817</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4777872444122327</v>
+        <v>0.09884725743485842</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1593959022594715</v>
+        <v>0.1007170134066909</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3910200446556239</v>
+        <v>0.1790517607542513</v>
       </c>
       <c r="N8" t="n">
-        <v>1.010353848162049</v>
+        <v>1.002171005592047</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4076665774796931</v>
+        <v>0.1866743648978012</v>
       </c>
       <c r="P8" t="n">
-        <v>157.7559858208275</v>
+        <v>160.880321394868</v>
       </c>
       <c r="Q8" t="n">
-        <v>251.609424335679</v>
+        <v>254.7337599097195</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_7</t>
+          <t>model_20_7_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9771337312538372</v>
+        <v>0.9951858264471973</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7874418104423048</v>
+        <v>0.8249444131170667</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.25748219568457</v>
+        <v>0.9916108045732485</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9145369915827399</v>
+        <v>0.8733216590524193</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7146131891020149</v>
+        <v>0.9720691105319053</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1529068443950771</v>
+        <v>0.03219240071482269</v>
       </c>
       <c r="H9" t="n">
-        <v>1.421377592312775</v>
+        <v>1.170597515543035</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8941901794416514</v>
+        <v>0.01122685169573304</v>
       </c>
       <c r="J9" t="n">
-        <v>0.06145352319870704</v>
+        <v>0.1866684533966389</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4778218482472924</v>
+        <v>0.09894765254618597</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1588295182857647</v>
+        <v>0.1052337556655163</v>
       </c>
       <c r="M9" t="n">
-        <v>0.391033047701952</v>
+        <v>0.1794224086194996</v>
       </c>
       <c r="N9" t="n">
-        <v>1.010354536790715</v>
+        <v>1.00218000311825</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4076801340926234</v>
+        <v>0.18706079201002</v>
       </c>
       <c r="P9" t="n">
-        <v>157.7558528063664</v>
+        <v>160.8720497138601</v>
       </c>
       <c r="Q9" t="n">
-        <v>251.6092913212179</v>
+        <v>254.7254882287115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_8</t>
+          <t>model_20_7_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9771323548127634</v>
+        <v>0.995160557171491</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7874280368704164</v>
+        <v>0.8248568271889937</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.257501035408555</v>
+        <v>0.9919818670111041</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9144561238081849</v>
+        <v>0.8727958273726893</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7145946311584344</v>
+        <v>0.9720298354307255</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1529160486628754</v>
+        <v>0.03236137647782493</v>
       </c>
       <c r="H10" t="n">
-        <v>1.421469696251414</v>
+        <v>1.171183203047356</v>
       </c>
       <c r="I10" t="n">
-        <v>0.894194136309912</v>
+        <v>0.01073027690545231</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06151167244657093</v>
+        <v>0.1874432992437499</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4778529197283935</v>
+        <v>0.0990867880746011</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1583203499415724</v>
+        <v>0.1102537952606139</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3910448166935286</v>
+        <v>0.1798926804453837</v>
       </c>
       <c r="N10" t="n">
-        <v>1.010355160084786</v>
+        <v>1.002191445809136</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4076924041145367</v>
+        <v>0.1875510842811288</v>
       </c>
       <c r="P10" t="n">
-        <v>157.7557324194626</v>
+        <v>160.8615793025979</v>
       </c>
       <c r="Q10" t="n">
-        <v>251.6091709343141</v>
+        <v>254.7150178174493</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_9</t>
+          <t>model_20_7_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9771310690748495</v>
+        <v>0.9951285543259272</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7874156135726792</v>
+        <v>0.8247554033205742</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.257521928852495</v>
+        <v>0.9923823691057695</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9143823564578453</v>
+        <v>0.872176723787546</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7145774847168032</v>
+        <v>0.9719767223804215</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1529246463982262</v>
+        <v>0.03257537965346963</v>
       </c>
       <c r="H11" t="n">
-        <v>1.421552770900587</v>
+        <v>1.171861424922491</v>
       </c>
       <c r="I11" t="n">
-        <v>0.894198524516727</v>
+        <v>0.01019430445613978</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06156471602249176</v>
+        <v>0.1883555870734338</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4778816279381572</v>
+        <v>0.09927494576478675</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1578625817214515</v>
+        <v>0.1158265491754961</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3910558098254342</v>
+        <v>0.1804865082311407</v>
       </c>
       <c r="N11" t="n">
-        <v>1.010355742305729</v>
+        <v>1.002205937663731</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4077038652468264</v>
+        <v>0.1881701925451185</v>
       </c>
       <c r="P11" t="n">
-        <v>157.7556199722247</v>
+        <v>160.848397002579</v>
       </c>
       <c r="Q11" t="n">
-        <v>251.6090584870761</v>
+        <v>254.7018355174304</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_10</t>
+          <t>model_20_7_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9771299362665735</v>
+        <v>0.9950881242394901</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7874044179343134</v>
+        <v>0.8246375433277618</v>
       </c>
       <c r="D12" t="n">
-        <v>-3.257536514994756</v>
+        <v>0.9928126045339413</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9143166040149445</v>
+        <v>0.8714452569018551</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7145624577111653</v>
+        <v>0.9719058562565738</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1529322214923833</v>
+        <v>0.03284573582763751</v>
       </c>
       <c r="H12" t="n">
-        <v>1.421627636185891</v>
+        <v>1.172649555237123</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8942015880140164</v>
+        <v>0.009618541334573556</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0616119963528944</v>
+        <v>0.1894334492497254</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4779067875858118</v>
+        <v>0.09952599529214946</v>
       </c>
       <c r="L12" t="n">
-        <v>0.157449468212299</v>
+        <v>0.1220208977929576</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3910654951442064</v>
+        <v>0.1812339257082887</v>
       </c>
       <c r="N12" t="n">
-        <v>1.010356255275514</v>
+        <v>1.002224245627401</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4077139628896701</v>
+        <v>0.1889494291316362</v>
       </c>
       <c r="P12" t="n">
-        <v>157.7555209050471</v>
+        <v>160.8318666997102</v>
       </c>
       <c r="Q12" t="n">
-        <v>251.6089594198986</v>
+        <v>254.6853052145616</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_11</t>
+          <t>model_20_7_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9771289605198848</v>
+        <v>0.9950371698081452</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7873943448905445</v>
+        <v>0.8245001696044985</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.257538723968561</v>
+        <v>0.9932729225480982</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9142571501758989</v>
+        <v>0.8705780698768162</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7145495568051345</v>
+        <v>0.9718124453125985</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1529387463149832</v>
+        <v>0.0331864683446651</v>
       </c>
       <c r="H13" t="n">
-        <v>1.421694994675956</v>
+        <v>1.173568173957133</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8942020519602155</v>
+        <v>0.009002520153169817</v>
       </c>
       <c r="J13" t="n">
-        <v>0.06165474757292165</v>
+        <v>0.190711303534513</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4779283875144991</v>
+        <v>0.09985691184384139</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1570800009056524</v>
+        <v>0.1289020111884303</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3910738374207398</v>
+        <v>0.1821715354951621</v>
       </c>
       <c r="N13" t="n">
-        <v>1.010356697123071</v>
+        <v>1.002247319332161</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4077226603141864</v>
+        <v>0.1899269549082566</v>
       </c>
       <c r="P13" t="n">
-        <v>157.7554355772679</v>
+        <v>160.8112261322459</v>
       </c>
       <c r="Q13" t="n">
-        <v>251.6088740921194</v>
+        <v>254.6646646470973</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.977127964793563</v>
+        <v>0.9949730472994416</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7873852487117354</v>
+        <v>0.8243395445289614</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.257562217711516</v>
+        <v>0.9937629258582484</v>
       </c>
       <c r="E14" t="n">
-        <v>0.914203398730258</v>
+        <v>0.8695456026821634</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7145365335153369</v>
+        <v>0.9716902666659926</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1529454047414828</v>
+        <v>0.03361525585562308</v>
       </c>
       <c r="H14" t="n">
-        <v>1.421755820865536</v>
+        <v>1.17464227457686</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8942069863024544</v>
+        <v>0.008346772585777052</v>
       </c>
       <c r="J14" t="n">
-        <v>0.06169339839709501</v>
+        <v>0.1922327084800384</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4779501923497747</v>
+        <v>0.1002897405329077</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1567457348388092</v>
+        <v>0.1365484417840914</v>
       </c>
       <c r="M14" t="n">
-        <v>0.39108235033236</v>
+        <v>0.1833446368335411</v>
       </c>
       <c r="N14" t="n">
-        <v>1.010357148018009</v>
+        <v>1.002276355939876</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4077315356380785</v>
+        <v>0.191149997599265</v>
       </c>
       <c r="P14" t="n">
-        <v>157.7553485060486</v>
+        <v>160.7855505434747</v>
       </c>
       <c r="Q14" t="n">
-        <v>251.6087870209001</v>
+        <v>254.6389890583261</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_13</t>
+          <t>model_20_7_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9771271412211355</v>
+        <v>0.9948924822861336</v>
       </c>
       <c r="C15" t="n">
-        <v>0.787377080193625</v>
+        <v>0.8241511439970467</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.257569814908646</v>
+        <v>0.9942813911965512</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9141555333374166</v>
+        <v>0.8683117228090176</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7145257812882486</v>
+        <v>0.9715315744908645</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1529509119740975</v>
+        <v>0.03415399447058119</v>
       </c>
       <c r="H15" t="n">
-        <v>1.421810443783753</v>
+        <v>1.175902109801278</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8942085819260537</v>
+        <v>0.007652935672174774</v>
       </c>
       <c r="J15" t="n">
-        <v>0.06172781676223178</v>
+        <v>0.194050907596592</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4779681947550151</v>
+        <v>0.1008519216343834</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1564435640450175</v>
+        <v>0.1450342238784029</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3910893912829873</v>
+        <v>0.18480799352458</v>
       </c>
       <c r="N15" t="n">
-        <v>1.010357520956467</v>
+        <v>1.002312838210053</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4077388763365506</v>
+        <v>0.1926756524142073</v>
       </c>
       <c r="P15" t="n">
-        <v>157.7552764916789</v>
+        <v>160.7537514628276</v>
       </c>
       <c r="Q15" t="n">
-        <v>251.6087150065303</v>
+        <v>254.607189977679</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_14</t>
+          <t>model_20_7_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9771263403015709</v>
+        <v>0.9947913988187791</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7873697069935499</v>
+        <v>0.8239293403148535</v>
       </c>
       <c r="D16" t="n">
-        <v>-3.257588511021155</v>
+        <v>0.9948260216062274</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9141126456253681</v>
+        <v>0.8668318346193675</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7145153963323769</v>
+        <v>0.9713266600160476</v>
       </c>
       <c r="G16" t="n">
-        <v>0.152956267726914</v>
+        <v>0.03482994008222746</v>
       </c>
       <c r="H16" t="n">
-        <v>1.421859748406606</v>
+        <v>1.177385312045415</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8942125086318931</v>
+        <v>0.006924083317761635</v>
       </c>
       <c r="J16" t="n">
-        <v>0.06175865584754045</v>
+        <v>0.196231615344227</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4779855822397168</v>
+        <v>0.1015778493309943</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1561771073553886</v>
+        <v>0.1544598548793197</v>
       </c>
       <c r="M16" t="n">
-        <v>0.391096238446388</v>
+        <v>0.1866278116525709</v>
       </c>
       <c r="N16" t="n">
-        <v>1.010357883637025</v>
+        <v>1.002358611855647</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4077460149978729</v>
+        <v>0.1945729439674496</v>
       </c>
       <c r="P16" t="n">
-        <v>157.7552064605953</v>
+        <v>160.7145558297955</v>
       </c>
       <c r="Q16" t="n">
-        <v>251.6086449754467</v>
+        <v>254.567994344647</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_15</t>
+          <t>model_20_7_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9771256315415545</v>
+        <v>0.994664724317736</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7873630781922291</v>
+        <v>0.8236673266450332</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.257599430735534</v>
+        <v>0.9953933528969915</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9140731814857048</v>
+        <v>0.8650507099914039</v>
       </c>
       <c r="F17" t="n">
-        <v>0.714506232466207</v>
+        <v>0.9710633826778603</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1529610072084071</v>
+        <v>0.03567701305398485</v>
       </c>
       <c r="H17" t="n">
-        <v>1.42190407523156</v>
+        <v>1.179137398661966</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8942148020769179</v>
+        <v>0.006164851479694373</v>
       </c>
       <c r="J17" t="n">
-        <v>0.06178703315916596</v>
+        <v>0.1988562138124546</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4780009252594472</v>
+        <v>0.1025105326460744</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1559326715145327</v>
+        <v>0.164925066503449</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3911022976260904</v>
+        <v>0.1888835965720286</v>
       </c>
       <c r="N17" t="n">
-        <v>1.010358204584956</v>
+        <v>1.002415973893855</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4077523321293996</v>
+        <v>0.1969247623210472</v>
       </c>
       <c r="P17" t="n">
-        <v>157.7551444898355</v>
+        <v>160.6664973792586</v>
       </c>
       <c r="Q17" t="n">
-        <v>251.6085830046869</v>
+        <v>254.51993589411</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_16</t>
+          <t>model_20_7_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9771250473130061</v>
+        <v>0.9945060734937521</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7873571362392275</v>
+        <v>0.8233567330366769</v>
       </c>
       <c r="D18" t="n">
-        <v>-3.257602063154528</v>
+        <v>0.9959783350090846</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9140388166672642</v>
+        <v>0.8628973908152393</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7144986925297683</v>
+        <v>0.9707260308781482</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1529649139474002</v>
+        <v>0.0367379118444855</v>
       </c>
       <c r="H18" t="n">
-        <v>1.421943809098642</v>
+        <v>1.181214339551197</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8942153549584344</v>
+        <v>0.005381998407016654</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0618117437234952</v>
+        <v>0.2020292642114197</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4780135493409648</v>
+        <v>0.1037056313092182</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1557111559135022</v>
+        <v>0.1765473643747438</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3911072921173935</v>
+        <v>0.1916713641744262</v>
       </c>
       <c r="N18" t="n">
-        <v>1.01035846914128</v>
+        <v>1.002487815776414</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4077575392465374</v>
+        <v>0.1998312109617533</v>
       </c>
       <c r="P18" t="n">
-        <v>157.7550934089858</v>
+        <v>160.6078920736684</v>
       </c>
       <c r="Q18" t="n">
-        <v>251.6085319238373</v>
+        <v>254.4613305885198</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_17</t>
+          <t>model_20_7_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9771244888848241</v>
+        <v>0.9943075027758286</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7873517529561314</v>
+        <v>0.8229871408083023</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.257606387614711</v>
+        <v>0.996574255436839</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9140066691790726</v>
+        <v>0.8602843905446187</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7144915134844059</v>
+        <v>0.9702951414606483</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1529686481592248</v>
+        <v>0.03806575514957388</v>
       </c>
       <c r="H19" t="n">
-        <v>1.421979807137494</v>
+        <v>1.183685804484154</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8942162632158619</v>
+        <v>0.004584507119172557</v>
       </c>
       <c r="J19" t="n">
-        <v>0.06183485988156111</v>
+        <v>0.2058796834353627</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4780255691841836</v>
+        <v>0.1052320952772676</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1555149519776989</v>
+        <v>0.1894494238043405</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3911120659852171</v>
+        <v>0.1951044723976718</v>
       </c>
       <c r="N19" t="n">
-        <v>1.010358722014419</v>
+        <v>1.002577734592078</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4077625163477976</v>
+        <v>0.2034104737095763</v>
       </c>
       <c r="P19" t="n">
-        <v>157.7550445851589</v>
+        <v>160.5368804319953</v>
       </c>
       <c r="Q19" t="n">
-        <v>251.6084831000103</v>
+        <v>254.3903189468468</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_18</t>
+          <t>model_20_7_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9771239903058259</v>
+        <v>0.9940590755838924</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7873468946369981</v>
+        <v>0.822545761949781</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.257611238612762</v>
+        <v>0.9971719047381118</v>
       </c>
       <c r="E20" t="n">
-        <v>0.913978332752916</v>
+        <v>0.8571011996132478</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7144851289100553</v>
+        <v>0.9697459913601653</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1529719821592816</v>
+        <v>0.03972698892595335</v>
       </c>
       <c r="H20" t="n">
-        <v>1.422012294739908</v>
+        <v>1.186637306943448</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8942172820609489</v>
+        <v>0.003784702164092883</v>
       </c>
       <c r="J20" t="n">
-        <v>0.06185523563540402</v>
+        <v>0.2105703142376012</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4780362588481765</v>
+        <v>0.107177508200847</v>
       </c>
       <c r="L20" t="n">
-        <v>0.155337940691882</v>
+        <v>0.2037685679770588</v>
       </c>
       <c r="M20" t="n">
-        <v>0.391116328167569</v>
+        <v>0.1993163037133524</v>
       </c>
       <c r="N20" t="n">
-        <v>1.010358947786041</v>
+        <v>1.002690229924275</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4077669599800761</v>
+        <v>0.2078016114040582</v>
       </c>
       <c r="P20" t="n">
-        <v>157.7550009950015</v>
+        <v>160.4514490009015</v>
       </c>
       <c r="Q20" t="n">
-        <v>251.6084395098529</v>
+        <v>254.3048875157529</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_19</t>
+          <t>model_20_7_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9771235169470054</v>
+        <v>0.9937483694135221</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7873425330943282</v>
+        <v>0.8220166818457204</v>
       </c>
       <c r="D21" t="n">
-        <v>-3.25762042122856</v>
+        <v>0.9977597273647641</v>
       </c>
       <c r="E21" t="n">
-        <v>0.913952874502264</v>
+        <v>0.8532071878104552</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7144790906985115</v>
+        <v>0.9690471499402873</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1529751475118939</v>
+        <v>0.04180468251788996</v>
       </c>
       <c r="H21" t="n">
-        <v>1.422041460395825</v>
+        <v>1.190175268035491</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8942192106667517</v>
+        <v>0.002998047769110262</v>
       </c>
       <c r="J21" t="n">
-        <v>0.06187354179178684</v>
+        <v>0.2163083840236299</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4780463685984867</v>
+        <v>0.1096532158963701</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1551766373100946</v>
+        <v>0.2196512257632816</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3911203747082143</v>
+        <v>0.204461934153744</v>
       </c>
       <c r="N21" t="n">
-        <v>1.010359162137205</v>
+        <v>1.002830927058028</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4077711787903341</v>
+        <v>0.2131663019852207</v>
       </c>
       <c r="P21" t="n">
-        <v>157.7549596106928</v>
+        <v>160.3494938475326</v>
       </c>
       <c r="Q21" t="n">
-        <v>251.6083981255443</v>
+        <v>254.2029323623841</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_20</t>
+          <t>model_20_7_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.977123108089946</v>
+        <v>0.9933597716937095</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7873386449697957</v>
+        <v>0.8213799755077364</v>
       </c>
       <c r="D22" t="n">
-        <v>-3.257625521888627</v>
+        <v>0.9983230983035181</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9139300981328559</v>
+        <v>0.8484244963667891</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7144738707394194</v>
+        <v>0.9681588640736852</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1529778815409331</v>
+        <v>0.04440323725960447</v>
       </c>
       <c r="H22" t="n">
-        <v>1.422067460302477</v>
+        <v>1.194432926249353</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8942202819478354</v>
+        <v>0.002244115877273803</v>
       </c>
       <c r="J22" t="n">
-        <v>0.06188991949919188</v>
+        <v>0.2233559788072711</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4780551083524133</v>
+        <v>0.1128000473422725</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1550315774987266</v>
+        <v>0.2372718587724956</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3911238698173932</v>
+        <v>0.2107207565941345</v>
       </c>
       <c r="N22" t="n">
-        <v>1.010359347280025</v>
+        <v>1.003006895836811</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4077748226935466</v>
+        <v>0.2196915754544471</v>
       </c>
       <c r="P22" t="n">
-        <v>157.7549238662644</v>
+        <v>160.228885801899</v>
       </c>
       <c r="Q22" t="n">
-        <v>251.6083623811158</v>
+        <v>254.0823243167504</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_21</t>
+          <t>model_20_7_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9771224100212654</v>
+        <v>0.9928737587842638</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7873319235127851</v>
+        <v>0.820610897888164</v>
       </c>
       <c r="D23" t="n">
-        <v>-3.257630414629299</v>
+        <v>0.9988438736894123</v>
       </c>
       <c r="E23" t="n">
-        <v>0.913890207315471</v>
+        <v>0.8425260974472468</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7144649978354078</v>
+        <v>0.9670304898965592</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1529825495294135</v>
+        <v>0.04765320782295213</v>
       </c>
       <c r="H23" t="n">
-        <v>1.422112406716457</v>
+        <v>1.199575751832711</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8942213095600385</v>
+        <v>0.001547187539476451</v>
       </c>
       <c r="J23" t="n">
-        <v>0.06191860362015805</v>
+        <v>0.2320476382937415</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4780699642155163</v>
+        <v>0.1167974129166089</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1547853387221973</v>
+        <v>0.2568028616425823</v>
       </c>
       <c r="M23" t="n">
-        <v>0.391129837176114</v>
+        <v>0.2182961470639189</v>
       </c>
       <c r="N23" t="n">
-        <v>1.010359663386597</v>
+        <v>1.003226977154296</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4077810440950824</v>
+        <v>0.2275894659797504</v>
       </c>
       <c r="P23" t="n">
-        <v>157.7548628389156</v>
+        <v>160.0876106612484</v>
       </c>
       <c r="Q23" t="n">
-        <v>251.6083013537671</v>
+        <v>253.9410491760998</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_22</t>
+          <t>model_20_7_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9771220692058101</v>
+        <v>0.9922656530585836</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7873290167111096</v>
+        <v>0.8196782015958941</v>
       </c>
       <c r="D24" t="n">
-        <v>-3.257643408299508</v>
+        <v>0.9993003733798498</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9138739224972076</v>
+        <v>0.8352202148500001</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7144606859065317</v>
+        <v>0.9655972493620149</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1529848285639329</v>
+        <v>0.05171961361064471</v>
       </c>
       <c r="H24" t="n">
-        <v>1.422131844512645</v>
+        <v>1.205812696233791</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8942240385937168</v>
+        <v>0.0009362762347587134</v>
       </c>
       <c r="J24" t="n">
-        <v>0.06193031347539801</v>
+        <v>0.2428133129538618</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4780771836585543</v>
+        <v>0.1218747945943103</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1546798035042216</v>
+        <v>0.2784437170370484</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3911327505642207</v>
+        <v>0.2274194662086883</v>
       </c>
       <c r="N24" t="n">
-        <v>1.010359817718124</v>
+        <v>1.003502345784792</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4077840815121523</v>
+        <v>0.2371011837083867</v>
       </c>
       <c r="P24" t="n">
-        <v>157.7548330444384</v>
+        <v>159.9238363917965</v>
       </c>
       <c r="Q24" t="n">
-        <v>251.6082715592898</v>
+        <v>253.7772749066479</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_23</t>
+          <t>model_20_7_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9771218188713759</v>
+        <v>0.9915044648103613</v>
       </c>
       <c r="C25" t="n">
-        <v>0.78732646723357</v>
+        <v>0.8185427281474112</v>
       </c>
       <c r="D25" t="n">
-        <v>-3.25764162706011</v>
+        <v>0.9996664771383572</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9138586324645572</v>
+        <v>0.826132419725607</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7144575124749101</v>
+        <v>0.9637763358265878</v>
       </c>
       <c r="G25" t="n">
-        <v>0.152986502551447</v>
+        <v>0.05680968293145671</v>
       </c>
       <c r="H25" t="n">
-        <v>1.422148892880691</v>
+        <v>1.21340561241217</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8942236644836903</v>
+        <v>0.0004463374035678882</v>
       </c>
       <c r="J25" t="n">
-        <v>0.06194130801436391</v>
+        <v>0.2562047471009031</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4780824969207824</v>
+        <v>0.1283255422522355</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1545870550482454</v>
+        <v>0.302409467161345</v>
       </c>
       <c r="M25" t="n">
-        <v>0.391134890480825</v>
+        <v>0.2383478192294964</v>
       </c>
       <c r="N25" t="n">
-        <v>1.010359931077113</v>
+        <v>1.003847034802855</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4077863125294366</v>
+        <v>0.2484947793421001</v>
       </c>
       <c r="P25" t="n">
-        <v>157.7548111601984</v>
+        <v>159.7360969872775</v>
       </c>
       <c r="Q25" t="n">
-        <v>251.6082496750498</v>
+        <v>253.5895355021289</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_20_7_24</t>
+          <t>model_20_7_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9771215274800873</v>
+        <v>0.9905510761827375</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7873241719718035</v>
+        <v>0.8171548161637965</v>
       </c>
       <c r="D26" t="n">
-        <v>-3.257652488510007</v>
+        <v>0.9999115746138476</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9138446928759454</v>
+        <v>0.8147800244126852</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7144538469930275</v>
+        <v>0.9614615790780673</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1529884510863354</v>
+        <v>0.06318499707432793</v>
       </c>
       <c r="H26" t="n">
-        <v>1.422164241306693</v>
+        <v>1.222686586237349</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8942259456915465</v>
+        <v>0.000118335388076127</v>
       </c>
       <c r="J26" t="n">
-        <v>0.06195133149525937</v>
+        <v>0.272933211174231</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4780886340205396</v>
+        <v>0.1365257732811536</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1545037629860054</v>
+        <v>0.3290527346801295</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3911373813461652</v>
+        <v>0.2513662608114461</v>
       </c>
       <c r="N26" t="n">
-        <v>1.010360063027885</v>
+        <v>1.004278757954987</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4077889094360712</v>
+        <v>0.2620674429340825</v>
       </c>
       <c r="P26" t="n">
-        <v>157.7547856870691</v>
+        <v>159.5233767881495</v>
       </c>
       <c r="Q26" t="n">
-        <v>251.6082242019205</v>
+        <v>253.376815303001</v>
       </c>
     </row>
   </sheetData>
